--- a/InputData/elec/BGrBSC/BAU Grid Battery Storage Cap.xlsx
+++ b/InputData/elec/BGrBSC/BAU Grid Battery Storage Cap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us-v2\InputData\elec\BGrBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BGrBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22035" windowHeight="11565" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22035" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -398,9 +398,6 @@
     <t>Growth in Battery Storage</t>
   </si>
   <si>
-    <t>We assume dirunal storage is all battery storage</t>
-  </si>
-  <si>
     <t>ref2019.d111618a</t>
   </si>
   <si>
@@ -447,6 +444,9 @@
   </si>
   <si>
     <t>Projections:  EIA, AEO2019 National Energy Modeling System run ref2019.d111618a.</t>
+  </si>
+  <si>
+    <t>We assume BAU diurnal storage is all battery storage</t>
   </si>
 </sst>
 </file>
@@ -1359,21 +1359,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1381,55 +1381,55 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
     </row>
   </sheetData>
@@ -1449,18 +1449,18 @@
       <selection activeCell="B1" sqref="B1:AM119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" style="6" customWidth="1"/>
-    <col min="3" max="37" width="9.1328125" style="6"/>
+    <col min="1" max="1" width="20.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="6" customWidth="1"/>
+    <col min="3" max="37" width="9.140625" style="6"/>
     <col min="38" max="38" width="8" style="6" customWidth="1"/>
-    <col min="39" max="16384" width="9.1328125" style="6"/>
+    <col min="39" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="10">
         <v>2017</v>
@@ -1565,24 +1565,24 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1590,29 +1590,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
@@ -1620,12 +1620,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
@@ -1732,10 +1732,10 @@
         <v>15</v>
       </c>
       <c r="AK12" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -1845,18 +1845,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>-1.4527999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>-1.2109E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>2.2502999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>8.456E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>-5.6340000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>29</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>0.123014</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>33</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>5.8900000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>2.3185000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>37</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>40</v>
       </c>
@@ -3099,12 +3099,12 @@
         <v>1.1344E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>43</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>-3.3660000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>45</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>47</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>48</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>-9.68E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>49</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>50</v>
       </c>
@@ -3782,12 +3782,12 @@
         <v>-4.06E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>52</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>53</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>54</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>55</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>56</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>58</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>59</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>60</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>61</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>62</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>64</v>
       </c>
@@ -5030,12 +5030,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>66</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>67</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>68</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>69</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>70</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>71</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>72</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>73</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>74</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>75</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>76</v>
       </c>
@@ -6278,12 +6278,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>39</v>
@@ -6391,12 +6391,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>79</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>80</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>81</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>82</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>83</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>84</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>85</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>86</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>87</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>88</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>89</v>
       </c>
@@ -7639,12 +7639,12 @@
         <v>1.1053E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>92</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>-9.3640000000000008E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>93</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>-2.039E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>95</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>2.5253000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>97</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>-7.0799999999999997E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>99</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>6.0502E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>100</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>4.0169999999999997E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>102</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>4.7788999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>103</v>
       </c>
@@ -8548,8 +8548,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="23" t="s">
         <v>105</v>
       </c>
@@ -8589,139 +8589,139 @@
       <c r="AJ87" s="23"/>
       <c r="AK87" s="23"/>
     </row>
-    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="21" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="21" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -8739,21 +8739,21 @@
   </sheetPr>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2014</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2015</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2016</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2017</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>592.19999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2018</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>752.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2019</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>798.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2020</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>919.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2021</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>1169.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2022</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>1419.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2023</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>1669.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2024</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>1918.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2025</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>1918.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2026</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>1918.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2027</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>1918.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2028</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>1918.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2029</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>1918.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2030</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>1918.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2031</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>4715.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2032</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>5713.4400000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2033</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>5713.4400000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2034</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>6475.43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2035</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>8001.4579999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2036</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>9272.8990000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2037</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>9281.3060000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2038</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>12197.307000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2039</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>12439.215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2040</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>15457.273999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2041</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>18583.275000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2042</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>18818.812999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2043</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>20163.57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2044</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>20803.710999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2045</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>21957.171999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2046</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>23104.578000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2047</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>26104.578000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2048</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>27820.377</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2049</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>27820.377</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2050</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>30820.377</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
     </row>
   </sheetData>
